--- a/data/trans_camb/P2A_fisi_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 9,37</t>
+          <t>-1,96; 9,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 12,25</t>
+          <t>-0,01; 11,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,04; 26,94</t>
+          <t>9,78; 26,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 15,01</t>
+          <t>0,42; 15,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 6,8</t>
+          <t>-5,95; 6,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 12,19</t>
+          <t>1,15; 12,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 10,41</t>
+          <t>0,38; 9,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 7,21</t>
+          <t>-1,45; 6,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,89; 16,96</t>
+          <t>6,96; 16,32</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 865,22</t>
+          <t>-57,59; 1075,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,53; —</t>
+          <t>-32,14; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>113,39; 2912,25</t>
+          <t>121,56; 2592,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 858,99</t>
+          <t>-15,0; 826,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,81; 577,15</t>
+          <t>-85,9; 350,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 639,04</t>
+          <t>-1,72; 639,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 457,82</t>
+          <t>-3,23; 534,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,81; 343,5</t>
+          <t>-38,67; 338,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,59; 873,03</t>
+          <t>96,03; 862,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,23</t>
+          <t>0,52; 5,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,46</t>
+          <t>1,75; 6,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,76</t>
+          <t>6,05; 11,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 5,29</t>
+          <t>-0,22; 5,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 5,46</t>
+          <t>-0,35; 5,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,46</t>
+          <t>3,07; 8,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,5</t>
+          <t>0,81; 4,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,28</t>
+          <t>1,54; 5,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,25</t>
+          <t>5,21; 9,35</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 271,63</t>
+          <t>12,95; 270,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,33; 340,78</t>
+          <t>44,8; 325,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>146,99; 627,79</t>
+          <t>160,38; 665,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 142,11</t>
+          <t>-6,02; 157,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 148,87</t>
+          <t>-5,87; 160,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,31; 236,17</t>
+          <t>46,42; 238,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,84; 142,22</t>
+          <t>16,96; 148,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,32; 165,88</t>
+          <t>32,09; 165,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>111,71; 306,33</t>
+          <t>107,15; 295,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,07</t>
+          <t>0,42; 4,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,72</t>
+          <t>-2,55; 1,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 9,63</t>
+          <t>3,69; 9,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,57</t>
+          <t>1,56; 6,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,79</t>
+          <t>-0,95; 3,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,12</t>
+          <t>5,36; 10,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,14</t>
+          <t>1,64; 5,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,02</t>
+          <t>-1,05; 2,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,38; 9,11</t>
+          <t>5,43; 9,06</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,07; 117,68</t>
+          <t>5,71; 106,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 37,15</t>
+          <t>-39,44; 36,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>59,01; 222,79</t>
+          <t>55,26; 211,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,02; 137,62</t>
+          <t>20,48; 138,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 80,31</t>
+          <t>-13,67; 75,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,4; 221,02</t>
+          <t>72,55; 222,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,61; 102,62</t>
+          <t>26,04; 108,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 40,24</t>
+          <t>-15,85; 42,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>83,31; 187,58</t>
+          <t>83,94; 184,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,48</t>
+          <t>-0,9; 4,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,43</t>
+          <t>-5,09; -0,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,98</t>
+          <t>4,13; 10,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,21</t>
+          <t>-0,47; 5,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,49</t>
+          <t>-3,3; 1,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 42,44</t>
+          <t>5,23; 42,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,98</t>
+          <t>0,18; 3,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; -0,1</t>
+          <t>-3,36; 0,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,1; 30,91</t>
+          <t>6,06; 31,25</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 100,45</t>
+          <t>-13,87; 100,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,91; -9,63</t>
+          <t>-68,8; -7,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>61,12; 243,86</t>
+          <t>53,66; 243,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 113,28</t>
+          <t>-7,13; 110,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 31,75</t>
+          <t>-46,43; 34,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>78,03; 868,61</t>
+          <t>79,24; 778,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,91; 79,81</t>
+          <t>1,92; 80,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-48,66; -1,33</t>
+          <t>-49,54; 2,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>98,26; 544,52</t>
+          <t>95,74; 568,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,48</t>
+          <t>-0,41; 4,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,7</t>
+          <t>-0,71; 3,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,92</t>
+          <t>0,32; 4,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,39</t>
+          <t>-0,66; 4,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,58</t>
+          <t>-2,39; 2,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,71</t>
+          <t>-0,94; 3,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,68</t>
+          <t>0,27; 3,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,34</t>
+          <t>-0,73; 2,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,75</t>
+          <t>0,51; 3,68</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 98,64</t>
+          <t>-7,0; 96,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 82,44</t>
+          <t>-12,47; 83,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,49; 110,49</t>
+          <t>3,61; 112,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 67,44</t>
+          <t>-8,94; 65,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 41,3</t>
+          <t>-26,04; 40,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 58,09</t>
+          <t>-11,13; 58,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,82; 62,83</t>
+          <t>3,85; 63,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 40,24</t>
+          <t>-9,97; 41,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>6,53; 63,83</t>
+          <t>6,31; 62,5</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,62</t>
+          <t>1,17; 3,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,69</t>
+          <t>-0,53; 1,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,09; 7,89</t>
+          <t>5,03; 7,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,22</t>
+          <t>1,46; 4,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,94</t>
+          <t>-0,63; 1,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,71; 17,15</t>
+          <t>4,75; 16,67</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,56</t>
+          <t>1,71; 3,53</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,48</t>
+          <t>-0,15; 1,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,97</t>
+          <t>5,48; 12,24</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>18,88; 79,7</t>
+          <t>20,1; 77,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 37,58</t>
+          <t>-9,85; 36,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>90,49; 172,48</t>
+          <t>89,64; 178,66</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>22,0; 74,39</t>
+          <t>21,13; 73,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 34,31</t>
+          <t>-9,16; 30,6</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>72,35; 295,98</t>
+          <t>72,23; 271,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>28,4; 68,64</t>
+          <t>28,06; 66,41</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 28,75</t>
+          <t>-2,25; 28,99</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>92,38; 221,9</t>
+          <t>93,09; 211,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_fisi_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,49</t>
+          <t>7,64</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 9,11</t>
+          <t>0,82; 5,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 11,56</t>
+          <t>1,79; 6,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,78; 26,82</t>
+          <t>7,02; 12,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 15,95</t>
+          <t>0,52; 6,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 6,73</t>
+          <t>-0,42; 4,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 12,08</t>
+          <t>2,62; 8,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 9,97</t>
+          <t>1,31; 4,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 6,99</t>
+          <t>1,45; 4,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 16,32</t>
+          <t>5,35; 9,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>121,9%</t>
+          <t>104,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>179,68%</t>
+          <t>149,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>598,12%</t>
+          <t>355,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>161,7%</t>
+          <t>60,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>152,3%</t>
+          <t>109,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>145,63%</t>
+          <t>76,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>311,9%</t>
+          <t>196,55%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,59; 1075,01</t>
+          <t>20,59; 268,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,14; —</t>
+          <t>42,19; 309,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>121,56; 2592,84</t>
+          <t>178,54; 652,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 826,51</t>
+          <t>4,65; 156,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-85,9; 350,44</t>
+          <t>-7,82; 119,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 639,43</t>
+          <t>38,37; 208,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 534,57</t>
+          <t>24,87; 149,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 338,9</t>
+          <t>31,8; 154,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,03; 862,3</t>
+          <t>115,55; 290,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>5,74</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,38</t>
+          <t>0,42; 4,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,5</t>
+          <t>-2,55; 1,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 11,85</t>
+          <t>-0,77; 7,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 5,76</t>
+          <t>1,56; 6,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,64</t>
+          <t>-0,95; 3,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,65</t>
+          <t>5,18; 9,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,51</t>
+          <t>1,64; 5,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,02</t>
+          <t>-1,05; 2,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,35</t>
+          <t>1,9; 7,92</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,8%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>142,52%</t>
+          <t>-8,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>316,29%</t>
+          <t>76,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>72,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>53,09%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>118,91%</t>
+          <t>132,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>66,98%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>190,05%</t>
+          <t>101,75%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,95; 270,39</t>
+          <t>5,71; 106,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,8; 325,73</t>
+          <t>-39,44; 36,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>160,38; 665,71</t>
+          <t>-10,77; 158,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 157,99</t>
+          <t>20,48; 138,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 160,99</t>
+          <t>-13,67; 75,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,42; 238,57</t>
+          <t>69,79; 218,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 148,72</t>
+          <t>26,04; 108,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,09; 165,12</t>
+          <t>-15,85; 42,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>107,15; 295,78</t>
+          <t>35,35; 154,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>24,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>17,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,69</t>
+          <t>-0,9; 4,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,56</t>
+          <t>-5,09; -0,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 9,41</t>
+          <t>3,58; 10,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,55</t>
+          <t>-0,47; 5,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,61</t>
+          <t>-3,3; 1,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 10,19</t>
+          <t>4,35; 56,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,16</t>
+          <t>0,18; 3,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,06</t>
+          <t>-3,36; 0,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,06</t>
+          <t>5,32; 43,74</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>-45,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>120,38%</t>
+          <t>117,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>72,46%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>-13,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>136,7%</t>
+          <t>417,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>-28,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>128,84%</t>
+          <t>290,66%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,71; 106,98</t>
+          <t>-13,87; 100,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,44; 36,14</t>
+          <t>-68,8; -7,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,26; 211,77</t>
+          <t>46,04; 224,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,48; 138,91</t>
+          <t>-7,13; 110,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 75,81</t>
+          <t>-46,43; 34,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>72,55; 222,24</t>
+          <t>69,66; 1070,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,04; 108,3</t>
+          <t>1,92; 80,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 42,88</t>
+          <t>-49,54; 2,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>83,94; 184,83</t>
+          <t>86,42; 823,86</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,17</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,77</t>
+          <t>1,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,7</t>
+          <t>-0,41; 4,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,47</t>
+          <t>-0,71; 3,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 10,98</t>
+          <t>0,27; 4,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,1</t>
+          <t>-0,69; 4,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,63</t>
+          <t>-2,53; 2,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,23; 42,39</t>
+          <t>-1,81; 3,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,92</t>
+          <t>0,22; 3,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,08</t>
+          <t>-0,77; 2,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,06; 31,25</t>
+          <t>0,04; 3,26</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>37,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-45,76%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>128,74%</t>
+          <t>48,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,1%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>289,43%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-28,98%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>217,49%</t>
+          <t>24,61%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 100,99</t>
+          <t>-7,0; 96,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,8; -7,32</t>
+          <t>-12,47; 83,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>53,66; 243,98</t>
+          <t>3,63; 114,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 110,04</t>
+          <t>-8,21; 64,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 34,88</t>
+          <t>-27,13; 38,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>79,24; 778,48</t>
+          <t>-21,34; 44,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,92; 80,74</t>
+          <t>3,22; 61,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 2,54</t>
+          <t>-10,44; 40,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>95,74; 568,82</t>
+          <t>0,6; 55,09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>7,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,5</t>
+          <t>1,17; 3,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,77</t>
+          <t>-0,53; 1,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 4,98</t>
+          <t>3,22; 7,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,34</t>
+          <t>1,4; 4,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,6</t>
+          <t>-0,68; 1,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,81</t>
+          <t>4,15; 24,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,7</t>
+          <t>1,69; 3,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,4</t>
+          <t>-0,17; 1,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,68</t>
+          <t>4,59; 15,64</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>46,4%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>50,2%</t>
+          <t>109,53%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>151,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>134,04%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 96,32</t>
+          <t>20,1; 77,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 83,2</t>
+          <t>-9,85; 36,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,61; 112,86</t>
+          <t>61,84; 160,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 65,2</t>
+          <t>20,11; 71,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 40,13</t>
+          <t>-10,08; 29,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 58,3</t>
+          <t>63,34; 402,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>3,85; 63,12</t>
+          <t>27,45; 65,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 41,44</t>
+          <t>-2,75; 27,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>6,31; 62,5</t>
+          <t>78,4; 292,62</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>6,44</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>7,71</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,61</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>7,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 3,55</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 1,65</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>5,03; 7,98</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 4,11</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 1,73</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 16,67</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 3,53</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 1,45</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>5,48; 12,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>46,4%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>11,21%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>128,95%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>46,45%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>11,27%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>124,26%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>46,48%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>11,32%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>127,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>20,1; 77,28</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-9,85; 36,58</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>89,64; 178,66</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>21,13; 73,62</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-9,16; 30,6</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>72,23; 271,87</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>28,06; 66,41</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 28,99</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>93,09; 211,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P2A_fisi_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Habitat-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,22</t>
+          <t>0,76; 5,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,51</t>
+          <t>2,04; 6,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 12,89</t>
+          <t>7,47; 12,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,01</t>
+          <t>0,49; 5,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,37</t>
+          <t>-0,58; 4,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 8,04</t>
+          <t>2,65; 7,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,71</t>
+          <t>1,39; 4,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,93</t>
+          <t>1,55; 5,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,34</t>
+          <t>5,85; 9,68</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,59; 268,71</t>
+          <t>18,94; 253,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,19; 309,17</t>
+          <t>54,0; 321,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>178,54; 652,61</t>
+          <t>197,42; 624,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 156,34</t>
+          <t>6,3; 155,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 119,68</t>
+          <t>-10,0; 123,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,37; 208,33</t>
+          <t>41,31; 201,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,87; 149,11</t>
+          <t>28,11; 143,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,8; 154,99</t>
+          <t>32,74; 155,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>115,55; 290,56</t>
+          <t>123,07; 304,73</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,69</t>
+          <t>0,22; 5,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,56</t>
+          <t>-2,7; 1,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 7,54</t>
+          <t>-0,61; 7,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,55</t>
+          <t>1,71; 6,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,61</t>
+          <t>-0,74; 4,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,97</t>
+          <t>5,4; 9,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,16</t>
+          <t>1,64; 5,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,06</t>
+          <t>-1,05; 2,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,92</t>
+          <t>1,1; 7,88</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 106,98</t>
+          <t>2,97; 118,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,44; 36,14</t>
+          <t>-39,41; 38,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 158,74</t>
+          <t>-1,18; 155,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,48; 138,91</t>
+          <t>22,41; 140,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 75,81</t>
+          <t>-13,02; 86,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,79; 218,46</t>
+          <t>74,14; 211,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,04; 108,3</t>
+          <t>24,62; 102,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 42,88</t>
+          <t>-16,14; 42,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,35; 154,07</t>
+          <t>33,71; 158,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,7</t>
+          <t>-1,15; 4,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,47</t>
+          <t>-5,01; -0,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,58; 10,26</t>
+          <t>3,61; 10,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,1</t>
+          <t>-0,42; 5,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,63</t>
+          <t>-3,5; 1,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 56,5</t>
+          <t>4,45; 55,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,92</t>
+          <t>0,12; 4,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,08</t>
+          <t>-3,36; -0,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 43,74</t>
+          <t>5,37; 42,57</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 100,99</t>
+          <t>-16,93; 98,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,8; -7,32</t>
+          <t>-68,62; -10,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,04; 224,22</t>
+          <t>52,58; 218,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 110,04</t>
+          <t>-6,31; 113,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 34,88</t>
+          <t>-46,07; 35,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>69,66; 1070,44</t>
+          <t>71,22; 1227,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 80,74</t>
+          <t>1,07; 82,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 2,54</t>
+          <t>-49,81; 0,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>86,42; 823,86</t>
+          <t>87,56; 815,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,5</t>
+          <t>-0,09; 4,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,77</t>
+          <t>-0,7; 3,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,93</t>
+          <t>0,49; 4,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 4,33</t>
+          <t>-0,41; 4,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 2,49</t>
+          <t>-2,05; 2,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,05</t>
+          <t>-1,87; 2,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,64</t>
+          <t>0,2; 3,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,39</t>
+          <t>-0,84; 2,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,26</t>
+          <t>-0,27; 3,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 96,32</t>
+          <t>-1,87; 103,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 83,2</t>
+          <t>-10,76; 84,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,63; 114,53</t>
+          <t>7,08; 106,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 64,67</t>
+          <t>-5,29; 67,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,13; 38,12</t>
+          <t>-23,13; 39,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 44,86</t>
+          <t>-19,73; 46,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,22; 61,48</t>
+          <t>1,5; 59,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 40,6</t>
+          <t>-11,21; 38,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,6; 55,09</t>
+          <t>-3,74; 51,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,55</t>
+          <t>1,2; 3,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,65</t>
+          <t>-0,6; 1,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,03</t>
+          <t>3,14; 6,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,05</t>
+          <t>1,54; 4,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,68</t>
+          <t>-0,6; 1,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,15; 24,37</t>
+          <t>4,17; 25,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,51</t>
+          <t>1,73; 3,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,42</t>
+          <t>-0,18; 1,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,64</t>
+          <t>4,62; 17,2</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>20,1; 77,28</t>
+          <t>21,43; 79,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 36,58</t>
+          <t>-10,62; 37,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>61,84; 160,31</t>
+          <t>58,69; 154,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,11; 71,73</t>
+          <t>22,25; 73,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 29,19</t>
+          <t>-8,35; 31,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>63,34; 402,44</t>
+          <t>64,01; 422,49</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>27,45; 65,99</t>
+          <t>29,21; 66,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 27,4</t>
+          <t>-2,93; 27,01</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>78,4; 292,62</t>
+          <t>79,18; 323,21</t>
         </is>
       </c>
     </row>
